--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il34-Csf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il34-Csf1r.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.318558</v>
+        <v>1.821109333333333</v>
       </c>
       <c r="H2">
-        <v>3.955674</v>
+        <v>5.463328</v>
       </c>
       <c r="I2">
-        <v>0.127073445927672</v>
+        <v>0.1939041790390135</v>
       </c>
       <c r="J2">
-        <v>0.1270734459276719</v>
+        <v>0.1939041790390135</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.263230666666667</v>
+        <v>0.701472</v>
       </c>
       <c r="N2">
-        <v>3.789692</v>
+        <v>2.104416</v>
       </c>
       <c r="O2">
-        <v>0.004067102850568614</v>
+        <v>0.001432026266286835</v>
       </c>
       <c r="P2">
-        <v>0.004067102850568615</v>
+        <v>0.001432026266286835</v>
       </c>
       <c r="Q2">
-        <v>1.665642901378667</v>
+        <v>1.277457206272</v>
       </c>
       <c r="R2">
-        <v>14.990786112408</v>
+        <v>11.497114856448</v>
       </c>
       <c r="S2">
-        <v>0.0005168207741640113</v>
+        <v>0.0002776758775266524</v>
       </c>
       <c r="T2">
-        <v>0.0005168207741640113</v>
+        <v>0.0002776758775266524</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.318558</v>
+        <v>1.821109333333333</v>
       </c>
       <c r="H3">
-        <v>3.955674</v>
+        <v>5.463328</v>
       </c>
       <c r="I3">
-        <v>0.127073445927672</v>
+        <v>0.1939041790390135</v>
       </c>
       <c r="J3">
-        <v>0.1270734459276719</v>
+        <v>0.1939041790390135</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.459959</v>
       </c>
       <c r="O3">
-        <v>0.00693283719718024</v>
+        <v>0.004395913625032331</v>
       </c>
       <c r="P3">
-        <v>0.00693283719718024</v>
+        <v>0.00439591362503233</v>
       </c>
       <c r="Q3">
-        <v>2.839276873040667</v>
+        <v>3.921430542616889</v>
       </c>
       <c r="R3">
-        <v>25.553491857366</v>
+        <v>35.292874883552</v>
       </c>
       <c r="S3">
-        <v>0.0008809795127012361</v>
+        <v>0.0008523860225883079</v>
       </c>
       <c r="T3">
-        <v>0.0008809795127012359</v>
+        <v>0.0008523860225883076</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.318558</v>
+        <v>1.821109333333333</v>
       </c>
       <c r="H4">
-        <v>3.955674</v>
+        <v>5.463328</v>
       </c>
       <c r="I4">
-        <v>0.127073445927672</v>
+        <v>0.1939041790390135</v>
       </c>
       <c r="J4">
-        <v>0.1270734459276719</v>
+        <v>0.1939041790390135</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>116.5003256666667</v>
+        <v>243.6819663333333</v>
       </c>
       <c r="N4">
-        <v>349.500977</v>
+        <v>731.045899</v>
       </c>
       <c r="O4">
-        <v>0.3750849461732553</v>
+        <v>0.4974667219928344</v>
       </c>
       <c r="P4">
-        <v>0.3750849461732553</v>
+        <v>0.4974667219928344</v>
       </c>
       <c r="Q4">
-        <v>153.6124364103887</v>
+        <v>443.7715032546524</v>
       </c>
       <c r="R4">
-        <v>1382.511927693498</v>
+        <v>3993.943529291872</v>
       </c>
       <c r="S4">
-        <v>0.04766333662583091</v>
+        <v>0.0964608763272497</v>
       </c>
       <c r="T4">
-        <v>0.04766333662583089</v>
+        <v>0.0964608763272497</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.318558</v>
+        <v>1.821109333333333</v>
       </c>
       <c r="H5">
-        <v>3.955674</v>
+        <v>5.463328</v>
       </c>
       <c r="I5">
-        <v>0.127073445927672</v>
+        <v>0.1939041790390135</v>
       </c>
       <c r="J5">
-        <v>0.1270734459276719</v>
+        <v>0.1939041790390135</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7543523333333334</v>
+        <v>0.888026</v>
       </c>
       <c r="N5">
-        <v>2.263057</v>
+        <v>2.664078</v>
       </c>
       <c r="O5">
-        <v>0.002428715994782494</v>
+        <v>0.00181286859225405</v>
       </c>
       <c r="P5">
-        <v>0.002428715994782494</v>
+        <v>0.00181286859225405</v>
       </c>
       <c r="Q5">
-        <v>0.9946573039353335</v>
+        <v>1.617192436842666</v>
       </c>
       <c r="R5">
-        <v>8.951915735418002</v>
+        <v>14.554731931584</v>
       </c>
       <c r="S5">
-        <v>0.0003086253106366653</v>
+        <v>0.0003515227960866336</v>
       </c>
       <c r="T5">
-        <v>0.0003086253106366652</v>
+        <v>0.0003515227960866336</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.318558</v>
+        <v>1.821109333333333</v>
       </c>
       <c r="H6">
-        <v>3.955674</v>
+        <v>5.463328</v>
       </c>
       <c r="I6">
-        <v>0.127073445927672</v>
+        <v>0.1939041790390135</v>
       </c>
       <c r="J6">
-        <v>0.1270734459276719</v>
+        <v>0.1939041790390135</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>189.9259493333334</v>
+        <v>242.4209796666667</v>
       </c>
       <c r="N6">
-        <v>569.7778480000001</v>
+        <v>727.262939</v>
       </c>
       <c r="O6">
-        <v>0.6114863977842134</v>
+        <v>0.4948924695235924</v>
       </c>
       <c r="P6">
-        <v>0.6114863977842134</v>
+        <v>0.4948924695235923</v>
       </c>
       <c r="Q6">
-        <v>250.4283799010614</v>
+        <v>441.4751086667769</v>
       </c>
       <c r="R6">
-        <v>2253.855419109552</v>
+        <v>3973.275978000991</v>
       </c>
       <c r="S6">
-        <v>0.07770368370433917</v>
+        <v>0.09596171801556218</v>
       </c>
       <c r="T6">
-        <v>0.07770368370433914</v>
+        <v>0.09596171801556216</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>13.851565</v>
       </c>
       <c r="I7">
-        <v>0.4449724866207715</v>
+        <v>0.4916190899998193</v>
       </c>
       <c r="J7">
-        <v>0.4449724866207714</v>
+        <v>0.4916190899998193</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.263230666666667</v>
+        <v>0.701472</v>
       </c>
       <c r="N7">
-        <v>3.789692</v>
+        <v>2.104416</v>
       </c>
       <c r="O7">
-        <v>0.004067102850568614</v>
+        <v>0.001432026266286835</v>
       </c>
       <c r="P7">
-        <v>0.004067102850568615</v>
+        <v>0.001432026266286835</v>
       </c>
       <c r="Q7">
-        <v>5.832573896442223</v>
+        <v>3.23882833456</v>
       </c>
       <c r="R7">
-        <v>52.49316506798</v>
+        <v>29.14945501104</v>
       </c>
       <c r="S7">
-        <v>0.001809748868759944</v>
+        <v>0.0007040114498877728</v>
       </c>
       <c r="T7">
-        <v>0.001809748868759945</v>
+        <v>0.0007040114498877727</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>13.851565</v>
       </c>
       <c r="I8">
-        <v>0.4449724866207715</v>
+        <v>0.4916190899998193</v>
       </c>
       <c r="J8">
-        <v>0.4449724866207714</v>
+        <v>0.4916190899998193</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>6.459959</v>
       </c>
       <c r="O8">
-        <v>0.00693283719718024</v>
+        <v>0.004395913625032331</v>
       </c>
       <c r="P8">
-        <v>0.00693283719718024</v>
+        <v>0.00439591362503233</v>
       </c>
       <c r="Q8">
-        <v>9.942282442870557</v>
+        <v>9.942282442870559</v>
       </c>
       <c r="R8">
-        <v>89.480541985835</v>
+        <v>89.48054198583502</v>
       </c>
       <c r="S8">
-        <v>0.003084921806966271</v>
+        <v>0.002161115056056202</v>
       </c>
       <c r="T8">
-        <v>0.003084921806966271</v>
+        <v>0.002161115056056201</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>13.851565</v>
       </c>
       <c r="I9">
-        <v>0.4449724866207715</v>
+        <v>0.4916190899998193</v>
       </c>
       <c r="J9">
-        <v>0.4449724866207714</v>
+        <v>0.4916190899998193</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>116.5003256666667</v>
+        <v>243.6819663333333</v>
       </c>
       <c r="N9">
-        <v>349.500977</v>
+        <v>731.045899</v>
       </c>
       <c r="O9">
-        <v>0.3750849461732553</v>
+        <v>0.4974667219928344</v>
       </c>
       <c r="P9">
-        <v>0.3750849461732553</v>
+        <v>0.4974667219928344</v>
       </c>
       <c r="Q9">
-        <v>537.9039444976673</v>
+        <v>1125.125531997993</v>
       </c>
       <c r="R9">
-        <v>4841.135500479006</v>
+        <v>10126.12978798194</v>
       </c>
       <c r="S9">
-        <v>0.1669024811927316</v>
+        <v>0.2445641371713104</v>
       </c>
       <c r="T9">
-        <v>0.1669024811927316</v>
+        <v>0.2445641371713103</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>13.851565</v>
       </c>
       <c r="I10">
-        <v>0.4449724866207715</v>
+        <v>0.4916190899998193</v>
       </c>
       <c r="J10">
-        <v>0.4449724866207714</v>
+        <v>0.4916190899998193</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7543523333333334</v>
+        <v>0.888026</v>
       </c>
       <c r="N10">
-        <v>2.263057</v>
+        <v>2.664078</v>
       </c>
       <c r="O10">
-        <v>0.002428715994782494</v>
+        <v>0.00181286859225405</v>
       </c>
       <c r="P10">
-        <v>0.002428715994782494</v>
+        <v>0.00181286859225405</v>
       </c>
       <c r="Q10">
-        <v>3.482986792689445</v>
+        <v>4.100183286896667</v>
       </c>
       <c r="R10">
-        <v>31.34688113420501</v>
+        <v>36.90164958207</v>
       </c>
       <c r="S10">
-        <v>0.001080711795494007</v>
+        <v>0.0008912408076131895</v>
       </c>
       <c r="T10">
-        <v>0.001080711795494007</v>
+        <v>0.0008912408076131894</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>13.851565</v>
       </c>
       <c r="I11">
-        <v>0.4449724866207715</v>
+        <v>0.4916190899998193</v>
       </c>
       <c r="J11">
-        <v>0.4449724866207714</v>
+        <v>0.4916190899998193</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>189.9259493333334</v>
+        <v>242.4209796666667</v>
       </c>
       <c r="N11">
-        <v>569.7778480000001</v>
+        <v>727.262939</v>
       </c>
       <c r="O11">
-        <v>0.6114863977842134</v>
+        <v>0.4948924695235924</v>
       </c>
       <c r="P11">
-        <v>0.6114863977842134</v>
+        <v>0.4948924695235923</v>
       </c>
       <c r="Q11">
-        <v>876.9238774591247</v>
+        <v>1119.303319072171</v>
       </c>
       <c r="R11">
-        <v>7892.314897132122</v>
+        <v>10073.72987164954</v>
       </c>
       <c r="S11">
-        <v>0.2720946229568197</v>
+        <v>0.2432985855149518</v>
       </c>
       <c r="T11">
-        <v>0.2720946229568196</v>
+        <v>0.2432985855149518</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2083843333333334</v>
+        <v>0.4429493333333334</v>
       </c>
       <c r="H12">
-        <v>0.6251530000000001</v>
+        <v>1.328848</v>
       </c>
       <c r="I12">
-        <v>0.02008263217394101</v>
+        <v>0.04716341038056566</v>
       </c>
       <c r="J12">
-        <v>0.02008263217394101</v>
+        <v>0.04716341038056565</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.263230666666667</v>
+        <v>0.701472</v>
       </c>
       <c r="N12">
-        <v>3.789692</v>
+        <v>2.104416</v>
       </c>
       <c r="O12">
-        <v>0.004067102850568614</v>
+        <v>0.001432026266286835</v>
       </c>
       <c r="P12">
-        <v>0.004067102850568615</v>
+        <v>0.001432026266286835</v>
       </c>
       <c r="Q12">
-        <v>0.2632374803195556</v>
+        <v>0.310716554752</v>
       </c>
       <c r="R12">
-        <v>2.369137322876</v>
+        <v>2.796448992768</v>
       </c>
       <c r="S12">
-        <v>8.167813056155644E-05</v>
+        <v>6.75392424726352E-05</v>
       </c>
       <c r="T12">
-        <v>8.167813056155645E-05</v>
+        <v>6.753924247263518E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2083843333333334</v>
+        <v>0.4429493333333334</v>
       </c>
       <c r="H13">
-        <v>0.6251530000000001</v>
+        <v>1.328848</v>
       </c>
       <c r="I13">
-        <v>0.02008263217394101</v>
+        <v>0.04716341038056566</v>
       </c>
       <c r="J13">
-        <v>0.02008263217394101</v>
+        <v>0.04716341038056565</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>6.459959</v>
       </c>
       <c r="O13">
-        <v>0.00693283719718024</v>
+        <v>0.004395913625032331</v>
       </c>
       <c r="P13">
-        <v>0.00693283719718024</v>
+        <v>0.00439591362503233</v>
       </c>
       <c r="Q13">
-        <v>0.4487180831918889</v>
+        <v>0.9538115108035558</v>
       </c>
       <c r="R13">
-        <v>4.038462748727</v>
+        <v>8.584303597232001</v>
       </c>
       <c r="S13">
-        <v>0.0001392296193527869</v>
+        <v>0.0002073262782949199</v>
       </c>
       <c r="T13">
-        <v>0.0001392296193527869</v>
+        <v>0.0002073262782949198</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2083843333333334</v>
+        <v>0.4429493333333334</v>
       </c>
       <c r="H14">
-        <v>0.6251530000000001</v>
+        <v>1.328848</v>
       </c>
       <c r="I14">
-        <v>0.02008263217394101</v>
+        <v>0.04716341038056566</v>
       </c>
       <c r="J14">
-        <v>0.02008263217394101</v>
+        <v>0.04716341038056565</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>116.5003256666667</v>
+        <v>243.6819663333333</v>
       </c>
       <c r="N14">
-        <v>349.500977</v>
+        <v>731.045899</v>
       </c>
       <c r="O14">
-        <v>0.3750849461732553</v>
+        <v>0.4974667219928344</v>
       </c>
       <c r="P14">
-        <v>0.3750849461732553</v>
+        <v>0.4974667219928344</v>
       </c>
       <c r="Q14">
-        <v>24.27684269716456</v>
+        <v>107.9387645327058</v>
       </c>
       <c r="R14">
-        <v>218.4915842744811</v>
+        <v>971.448880794352</v>
       </c>
       <c r="S14">
-        <v>0.007532693007979947</v>
+        <v>0.02346222716002282</v>
       </c>
       <c r="T14">
-        <v>0.007532693007979947</v>
+        <v>0.02346222716002281</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2083843333333334</v>
+        <v>0.4429493333333334</v>
       </c>
       <c r="H15">
-        <v>0.6251530000000001</v>
+        <v>1.328848</v>
       </c>
       <c r="I15">
-        <v>0.02008263217394101</v>
+        <v>0.04716341038056566</v>
       </c>
       <c r="J15">
-        <v>0.02008263217394101</v>
+        <v>0.04716341038056565</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.7543523333333334</v>
+        <v>0.888026</v>
       </c>
       <c r="N15">
-        <v>2.263057</v>
+        <v>2.664078</v>
       </c>
       <c r="O15">
-        <v>0.002428715994782494</v>
+        <v>0.00181286859225405</v>
       </c>
       <c r="P15">
-        <v>0.002428715994782494</v>
+        <v>0.00181286859225405</v>
       </c>
       <c r="Q15">
-        <v>0.1571952080801111</v>
+        <v>0.3933505246826667</v>
       </c>
       <c r="R15">
-        <v>1.414756872721</v>
+        <v>3.540154722144</v>
       </c>
       <c r="S15">
-        <v>4.877500997818405E-05</v>
+        <v>8.550106538251611E-05</v>
       </c>
       <c r="T15">
-        <v>4.877500997818405E-05</v>
+        <v>8.550106538251609E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2083843333333334</v>
+        <v>0.4429493333333334</v>
       </c>
       <c r="H16">
-        <v>0.6251530000000001</v>
+        <v>1.328848</v>
       </c>
       <c r="I16">
-        <v>0.02008263217394101</v>
+        <v>0.04716341038056566</v>
       </c>
       <c r="J16">
-        <v>0.02008263217394101</v>
+        <v>0.04716341038056565</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>189.9259493333334</v>
+        <v>242.4209796666667</v>
       </c>
       <c r="N16">
-        <v>569.7778480000001</v>
+        <v>727.262939</v>
       </c>
       <c r="O16">
-        <v>0.6114863977842134</v>
+        <v>0.4948924695235924</v>
       </c>
       <c r="P16">
-        <v>0.6114863977842134</v>
+        <v>0.4948924695235923</v>
       </c>
       <c r="Q16">
-        <v>39.57759233452713</v>
+        <v>107.3802113293636</v>
       </c>
       <c r="R16">
-        <v>356.1983310107441</v>
+        <v>966.421901964272</v>
       </c>
       <c r="S16">
-        <v>0.01228025640606853</v>
+        <v>0.02334081663439277</v>
       </c>
       <c r="T16">
-        <v>0.01228025640606853</v>
+        <v>0.02334081663439276</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.187202333333333</v>
+        <v>2.270073333333333</v>
       </c>
       <c r="H17">
-        <v>12.561607</v>
+        <v>6.81022</v>
       </c>
       <c r="I17">
-        <v>0.4035334276482758</v>
+        <v>0.241708006214357</v>
       </c>
       <c r="J17">
-        <v>0.4035334276482758</v>
+        <v>0.241708006214357</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.263230666666667</v>
+        <v>0.701472</v>
       </c>
       <c r="N17">
-        <v>3.789692</v>
+        <v>2.104416</v>
       </c>
       <c r="O17">
-        <v>0.004067102850568614</v>
+        <v>0.001432026266286835</v>
       </c>
       <c r="P17">
-        <v>0.004067102850568615</v>
+        <v>0.001432026266286835</v>
       </c>
       <c r="Q17">
-        <v>5.289402395004889</v>
+        <v>1.59239288128</v>
       </c>
       <c r="R17">
-        <v>47.60462155504401</v>
+        <v>14.33153593152</v>
       </c>
       <c r="S17">
-        <v>0.001641211953888026</v>
+        <v>0.0003461322136707807</v>
       </c>
       <c r="T17">
-        <v>0.001641211953888026</v>
+        <v>0.0003461322136707807</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.187202333333333</v>
+        <v>2.270073333333333</v>
       </c>
       <c r="H18">
-        <v>12.561607</v>
+        <v>6.81022</v>
       </c>
       <c r="I18">
-        <v>0.4035334276482758</v>
+        <v>0.241708006214357</v>
       </c>
       <c r="J18">
-        <v>0.4035334276482758</v>
+        <v>0.241708006214357</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>6.459959</v>
       </c>
       <c r="O18">
-        <v>0.00693283719718024</v>
+        <v>0.004395913625032331</v>
       </c>
       <c r="P18">
-        <v>0.00693283719718024</v>
+        <v>0.00439591362503233</v>
       </c>
       <c r="Q18">
-        <v>9.016385132679222</v>
+        <v>4.888193553442223</v>
       </c>
       <c r="R18">
-        <v>81.14746619411299</v>
+        <v>43.99374198098</v>
       </c>
       <c r="S18">
-        <v>0.002797631557505607</v>
+        <v>0.001062527517797091</v>
       </c>
       <c r="T18">
-        <v>0.002797631557505607</v>
+        <v>0.001062527517797091</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.187202333333333</v>
+        <v>2.270073333333333</v>
       </c>
       <c r="H19">
-        <v>12.561607</v>
+        <v>6.81022</v>
       </c>
       <c r="I19">
-        <v>0.4035334276482758</v>
+        <v>0.241708006214357</v>
       </c>
       <c r="J19">
-        <v>0.4035334276482758</v>
+        <v>0.241708006214357</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>116.5003256666667</v>
+        <v>243.6819663333333</v>
       </c>
       <c r="N19">
-        <v>349.500977</v>
+        <v>731.045899</v>
       </c>
       <c r="O19">
-        <v>0.3750849461732553</v>
+        <v>0.4974667219928344</v>
       </c>
       <c r="P19">
-        <v>0.3750849461732553</v>
+        <v>0.4974667219928344</v>
       </c>
       <c r="Q19">
-        <v>487.81043546556</v>
+        <v>553.1759335875311</v>
       </c>
       <c r="R19">
-        <v>4390.29391919004</v>
+        <v>4978.58340228778</v>
       </c>
       <c r="S19">
-        <v>0.1513593139885627</v>
+        <v>0.1202416895308798</v>
       </c>
       <c r="T19">
-        <v>0.1513593139885627</v>
+        <v>0.1202416895308798</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.187202333333333</v>
+        <v>2.270073333333333</v>
       </c>
       <c r="H20">
-        <v>12.561607</v>
+        <v>6.81022</v>
       </c>
       <c r="I20">
-        <v>0.4035334276482758</v>
+        <v>0.241708006214357</v>
       </c>
       <c r="J20">
-        <v>0.4035334276482758</v>
+        <v>0.241708006214357</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.7543523333333334</v>
+        <v>0.888026</v>
       </c>
       <c r="N20">
-        <v>2.263057</v>
+        <v>2.664078</v>
       </c>
       <c r="O20">
-        <v>0.002428715994782494</v>
+        <v>0.00181286859225405</v>
       </c>
       <c r="P20">
-        <v>0.002428715994782494</v>
+        <v>0.00181286859225405</v>
       </c>
       <c r="Q20">
-        <v>3.158625850288778</v>
+        <v>2.015884141906667</v>
       </c>
       <c r="R20">
-        <v>28.42763265259901</v>
+        <v>18.14295727716</v>
       </c>
       <c r="S20">
-        <v>0.0009800680901587717</v>
+        <v>0.0004381848529623545</v>
       </c>
       <c r="T20">
-        <v>0.0009800680901587717</v>
+        <v>0.0004381848529623544</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.187202333333333</v>
+        <v>2.270073333333333</v>
       </c>
       <c r="H21">
-        <v>12.561607</v>
+        <v>6.81022</v>
       </c>
       <c r="I21">
-        <v>0.4035334276482758</v>
+        <v>0.241708006214357</v>
       </c>
       <c r="J21">
-        <v>0.4035334276482758</v>
+        <v>0.241708006214357</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>189.9259493333334</v>
+        <v>242.4209796666667</v>
       </c>
       <c r="N21">
-        <v>569.7778480000001</v>
+        <v>727.262939</v>
       </c>
       <c r="O21">
-        <v>0.6114863977842134</v>
+        <v>0.4948924695235924</v>
       </c>
       <c r="P21">
-        <v>0.6114863977842134</v>
+        <v>0.4948924695235923</v>
       </c>
       <c r="Q21">
-        <v>795.2583782090819</v>
+        <v>550.3134013818423</v>
       </c>
       <c r="R21">
-        <v>7157.325403881737</v>
+        <v>4952.82061243658</v>
       </c>
       <c r="S21">
-        <v>0.2467552020581607</v>
+        <v>0.1196194720990469</v>
       </c>
       <c r="T21">
-        <v>0.2467552020581607</v>
+        <v>0.1196194720990469</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.04501266666666667</v>
+        <v>0.24048</v>
       </c>
       <c r="H22">
-        <v>0.135038</v>
+        <v>0.72144</v>
       </c>
       <c r="I22">
-        <v>0.004338007629339771</v>
+        <v>0.02560531436624451</v>
       </c>
       <c r="J22">
-        <v>0.004338007629339771</v>
+        <v>0.02560531436624451</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.263230666666667</v>
+        <v>0.701472</v>
       </c>
       <c r="N22">
-        <v>3.789692</v>
+        <v>2.104416</v>
       </c>
       <c r="O22">
-        <v>0.004067102850568614</v>
+        <v>0.001432026266286835</v>
       </c>
       <c r="P22">
-        <v>0.004067102850568615</v>
+        <v>0.001432026266286835</v>
       </c>
       <c r="Q22">
-        <v>0.05686138092177778</v>
+        <v>0.16868998656</v>
       </c>
       <c r="R22">
-        <v>0.5117524282960001</v>
+        <v>1.51820987904</v>
       </c>
       <c r="S22">
-        <v>1.764312319507618E-05</v>
+        <v>3.666748272899378E-05</v>
       </c>
       <c r="T22">
-        <v>1.764312319507618E-05</v>
+        <v>3.666748272899377E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.04501266666666667</v>
+        <v>0.24048</v>
       </c>
       <c r="H23">
-        <v>0.135038</v>
+        <v>0.72144</v>
       </c>
       <c r="I23">
-        <v>0.004338007629339771</v>
+        <v>0.02560531436624451</v>
       </c>
       <c r="J23">
-        <v>0.004338007629339771</v>
+        <v>0.02560531436624451</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>6.459959</v>
       </c>
       <c r="O23">
-        <v>0.00693283719718024</v>
+        <v>0.004395913625032331</v>
       </c>
       <c r="P23">
-        <v>0.00693283719718024</v>
+        <v>0.00439591362503233</v>
       </c>
       <c r="Q23">
-        <v>0.09692666038244445</v>
+        <v>0.5178303134400001</v>
       </c>
       <c r="R23">
-        <v>0.8723399434420001</v>
+        <v>4.66047282096</v>
       </c>
       <c r="S23">
-        <v>3.007470065433844E-05</v>
+        <v>0.0001125587502958103</v>
       </c>
       <c r="T23">
-        <v>3.007470065433844E-05</v>
+        <v>0.0001125587502958103</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.04501266666666667</v>
+        <v>0.24048</v>
       </c>
       <c r="H24">
-        <v>0.135038</v>
+        <v>0.72144</v>
       </c>
       <c r="I24">
-        <v>0.004338007629339771</v>
+        <v>0.02560531436624451</v>
       </c>
       <c r="J24">
-        <v>0.004338007629339771</v>
+        <v>0.02560531436624451</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.5003256666667</v>
+        <v>243.6819663333333</v>
       </c>
       <c r="N24">
-        <v>349.500977</v>
+        <v>731.045899</v>
       </c>
       <c r="O24">
-        <v>0.3750849461732553</v>
+        <v>0.4974667219928344</v>
       </c>
       <c r="P24">
-        <v>0.3750849461732553</v>
+        <v>0.4974667219928344</v>
       </c>
       <c r="Q24">
-        <v>5.243990325791779</v>
+        <v>58.60063926383999</v>
       </c>
       <c r="R24">
-        <v>47.19591293212601</v>
+        <v>527.4057533745599</v>
       </c>
       <c r="S24">
-        <v>0.001627121358150079</v>
+        <v>0.01273779180337169</v>
       </c>
       <c r="T24">
-        <v>0.001627121358150079</v>
+        <v>0.01273779180337169</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.04501266666666667</v>
+        <v>0.24048</v>
       </c>
       <c r="H25">
-        <v>0.135038</v>
+        <v>0.72144</v>
       </c>
       <c r="I25">
-        <v>0.004338007629339771</v>
+        <v>0.02560531436624451</v>
       </c>
       <c r="J25">
-        <v>0.004338007629339771</v>
+        <v>0.02560531436624451</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.7543523333333334</v>
+        <v>0.888026</v>
       </c>
       <c r="N25">
-        <v>2.263057</v>
+        <v>2.664078</v>
       </c>
       <c r="O25">
-        <v>0.002428715994782494</v>
+        <v>0.00181286859225405</v>
       </c>
       <c r="P25">
-        <v>0.002428715994782494</v>
+        <v>0.00181286859225405</v>
       </c>
       <c r="Q25">
-        <v>0.03395541012955557</v>
+        <v>0.21355249248</v>
       </c>
       <c r="R25">
-        <v>0.3055986911660001</v>
+        <v>1.92197243232</v>
       </c>
       <c r="S25">
-        <v>1.053578851486599E-05</v>
+        <v>4.641907020935609E-05</v>
       </c>
       <c r="T25">
-        <v>1.053578851486599E-05</v>
+        <v>4.641907020935607E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.04501266666666667</v>
+        <v>0.24048</v>
       </c>
       <c r="H26">
-        <v>0.135038</v>
+        <v>0.72144</v>
       </c>
       <c r="I26">
-        <v>0.004338007629339771</v>
+        <v>0.02560531436624451</v>
       </c>
       <c r="J26">
-        <v>0.004338007629339771</v>
+        <v>0.02560531436624451</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>189.9259493333334</v>
+        <v>242.4209796666667</v>
       </c>
       <c r="N26">
-        <v>569.7778480000001</v>
+        <v>727.262939</v>
       </c>
       <c r="O26">
-        <v>0.6114863977842134</v>
+        <v>0.4948924695235924</v>
       </c>
       <c r="P26">
-        <v>0.6114863977842134</v>
+        <v>0.4948924695235923</v>
       </c>
       <c r="Q26">
-        <v>8.549073448691558</v>
+        <v>58.29739719024</v>
       </c>
       <c r="R26">
-        <v>76.94166103822403</v>
+        <v>524.67657471216</v>
       </c>
       <c r="S26">
-        <v>0.002652632658825412</v>
+        <v>0.01267187725963866</v>
       </c>
       <c r="T26">
-        <v>0.002652632658825412</v>
+        <v>0.01267187725963866</v>
       </c>
     </row>
   </sheetData>
